--- a/data/trans_orig/AIRE_1_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/AIRE_1_R-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{970427E5-2E88-4DBB-BAA8-4FF70C477175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E95CBD34-00C1-4BE2-97B1-6E20CFFB6CAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F7222F9B-971B-425D-AB50-0AE531F97414}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B2B090B5-7B57-4697-AE2D-ECACEBB71A3D}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -101,55 +101,55 @@
     <t>85,15%</t>
   </si>
   <si>
-    <t>67,91%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
+    <t>68,74%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
   </si>
   <si>
     <t>82,93%</t>
   </si>
   <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
   </si>
   <si>
     <t>84,13%</t>
   </si>
   <si>
-    <t>73,49%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
+    <t>73,96%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
   </si>
   <si>
     <t>14,85%</t>
   </si>
   <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
   </si>
   <si>
     <t>17,07%</t>
   </si>
   <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
   </si>
   <si>
     <t>15,87%</t>
   </si>
   <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -158,55 +158,55 @@
     <t>74,2%</t>
   </si>
   <si>
-    <t>68,49%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
+    <t>68,76%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
   </si>
   <si>
     <t>78,93%</t>
   </si>
   <si>
-    <t>73,99%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>83,81%</t>
   </si>
   <si>
     <t>76,32%</t>
   </si>
   <si>
-    <t>71,95%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
+    <t>72,48%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
   </si>
   <si>
     <t>25,8%</t>
   </si>
   <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
   </si>
   <si>
     <t>21,07%</t>
   </si>
   <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
   </si>
   <si>
     <t>23,68%</t>
   </si>
   <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -215,109 +215,109 @@
     <t>67,38%</t>
   </si>
   <si>
-    <t>58,15%</t>
-  </si>
-  <si>
-    <t>74,99%</t>
+    <t>58,46%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
   </si>
   <si>
     <t>61,84%</t>
   </si>
   <si>
-    <t>53,67%</t>
-  </si>
-  <si>
-    <t>71,21%</t>
+    <t>52,57%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
   </si>
   <si>
     <t>64,69%</t>
   </si>
   <si>
-    <t>57,78%</t>
-  </si>
-  <si>
-    <t>70,13%</t>
+    <t>58,29%</t>
+  </si>
+  <si>
+    <t>70,96%</t>
   </si>
   <si>
     <t>32,62%</t>
   </si>
   <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>41,54%</t>
   </si>
   <si>
     <t>38,16%</t>
   </si>
   <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>47,43%</t>
   </si>
   <si>
     <t>35,31%</t>
   </si>
   <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>42,22%</t>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
   </si>
   <si>
     <t>73,46%</t>
   </si>
   <si>
-    <t>68,94%</t>
-  </si>
-  <si>
-    <t>77,38%</t>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
   </si>
   <si>
     <t>74,71%</t>
   </si>
   <si>
-    <t>70,44%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>78,98%</t>
   </si>
   <si>
     <t>74,03%</t>
   </si>
   <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>76,89%</t>
+    <t>70,92%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
   </si>
   <si>
     <t>26,54%</t>
   </si>
   <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
   </si>
   <si>
     <t>25,29%</t>
   </si>
   <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
   </si>
   <si>
     <t>25,97%</t>
   </si>
   <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -732,7 +732,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29AE7174-CDC5-4E85-A0CD-23B88D0C26E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4077855A-210C-4FCC-80C7-5395A3CDA843}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/AIRE_1_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/AIRE_1_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E95CBD34-00C1-4BE2-97B1-6E20CFFB6CAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF76D9C3-A180-4695-AD7F-AE63C88C24A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B2B090B5-7B57-4697-AE2D-ECACEBB71A3D}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{E6F4DE07-0A4E-497D-BEBA-BCCCA74A4551}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="88">
   <si>
     <t>Población según si no está dispuesta a pagar para reducir la contaminación del aire (impuesto durante 5 años) en 2023 (Tasa respuesta: 50,99%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,259 +65,238 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Primarios</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>70,57%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>66,69%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>73,9%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>75,18%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>73,49%</t>
+  </si>
+  <si>
+    <t>67,21%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
+  </si>
+  <si>
+    <t>76,82%</t>
+  </si>
+  <si>
+    <t>72,64%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>62,62%</t>
+  </si>
+  <si>
+    <t>54,04%</t>
+  </si>
+  <si>
+    <t>71,21%</t>
+  </si>
+  <si>
+    <t>67,47%</t>
+  </si>
+  <si>
+    <t>58,76%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>65,18%</t>
+  </si>
+  <si>
+    <t>58,87%</t>
+  </si>
+  <si>
+    <t>70,66%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>76,41%</t>
+  </si>
+  <si>
+    <t>72,06%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>72,95%</t>
+  </si>
+  <si>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>74,55%</t>
+  </si>
+  <si>
+    <t>71,0%</t>
+  </si>
+  <si>
+    <t>78,24%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
   </si>
   <si>
     <t>22,85%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>68,74%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>84,13%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>74,2%</t>
-  </si>
-  <si>
-    <t>68,76%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>58,46%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>61,84%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>70,17%</t>
-  </si>
-  <si>
-    <t>64,69%</t>
-  </si>
-  <si>
-    <t>58,29%</t>
-  </si>
-  <si>
-    <t>70,96%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>77,48%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>70,92%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -732,8 +711,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4077855A-210C-4FCC-80C7-5395A3CDA843}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A2482B6-42EE-4855-887D-F247E0B0FCAA}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -850,96 +829,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="D4" s="7">
+        <v>23958</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="I4" s="7">
-        <v>1171</v>
+        <v>27915</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="N4" s="7">
-        <v>1171</v>
+        <v>51872</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="D5" s="7">
+        <v>4433</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>5137</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>9571</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -948,151 +931,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="D6" s="7">
+        <v>28391</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="I6" s="7">
-        <v>1171</v>
+        <v>33052</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="N6" s="7">
-        <v>1171</v>
+        <v>61443</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>233</v>
+      </c>
+      <c r="D7" s="7">
+        <v>175045</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="7">
+        <v>255</v>
+      </c>
+      <c r="I7" s="7">
+        <v>189772</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="7">
-        <v>26900</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="7">
-        <v>29</v>
-      </c>
-      <c r="I7" s="7">
-        <v>22229</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>25</v>
-      </c>
       <c r="M7" s="7">
-        <v>66</v>
+        <v>488</v>
       </c>
       <c r="N7" s="7">
-        <v>49129</v>
+        <v>364817</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="D8" s="7">
-        <v>4692</v>
+        <v>41649</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="I8" s="7">
-        <v>4575</v>
+        <v>68458</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="N8" s="7">
-        <v>9267</v>
+        <v>110106</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1101,153 +1086,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>42</v>
+        <v>298</v>
       </c>
       <c r="D9" s="7">
-        <v>31592</v>
+        <v>216694</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>36</v>
+        <v>345</v>
       </c>
       <c r="I9" s="7">
-        <v>26804</v>
+        <v>258230</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>78</v>
+        <v>643</v>
       </c>
       <c r="N9" s="7">
-        <v>58396</v>
+        <v>474923</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>255</v>
+        <v>83</v>
       </c>
       <c r="D10" s="7">
-        <v>184453</v>
+        <v>53255</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>233</v>
+        <v>80</v>
       </c>
       <c r="I10" s="7">
-        <v>159627</v>
+        <v>64003</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>488</v>
+        <v>163</v>
       </c>
       <c r="N10" s="7">
-        <v>344080</v>
+        <v>117258</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="D11" s="7">
-        <v>64132</v>
+        <v>31786</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
+        <v>44</v>
+      </c>
+      <c r="I11" s="7">
+        <v>30864</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="I11" s="7">
-        <v>42619</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>53</v>
-      </c>
       <c r="M11" s="7">
-        <v>155</v>
+        <v>94</v>
       </c>
       <c r="N11" s="7">
-        <v>106751</v>
+        <v>62650</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1256,153 +1241,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>345</v>
+        <v>133</v>
       </c>
       <c r="D12" s="7">
-        <v>248585</v>
+        <v>85041</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>298</v>
+        <v>124</v>
       </c>
       <c r="I12" s="7">
-        <v>202246</v>
+        <v>94867</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>643</v>
+        <v>257</v>
       </c>
       <c r="N12" s="7">
-        <v>450831</v>
+        <v>179908</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>80</v>
+        <v>345</v>
       </c>
       <c r="D13" s="7">
-        <v>61250</v>
+        <v>252258</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
-        <v>83</v>
+        <v>372</v>
       </c>
       <c r="I13" s="7">
-        <v>53052</v>
+        <v>281689</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
-        <v>163</v>
+        <v>717</v>
       </c>
       <c r="N13" s="7">
-        <v>114301</v>
+        <v>533947</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>44</v>
+        <v>122</v>
       </c>
       <c r="D14" s="7">
-        <v>29650</v>
+        <v>77868</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
-        <v>50</v>
+        <v>139</v>
       </c>
       <c r="I14" s="7">
-        <v>32741</v>
+        <v>104460</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
-        <v>94</v>
+        <v>261</v>
       </c>
       <c r="N14" s="7">
-        <v>62391</v>
+        <v>182328</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1411,216 +1396,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>124</v>
+        <v>467</v>
       </c>
       <c r="D15" s="7">
-        <v>90900</v>
+        <v>330126</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>133</v>
+        <v>511</v>
       </c>
       <c r="I15" s="7">
-        <v>85793</v>
+        <v>386149</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>257</v>
+        <v>978</v>
       </c>
       <c r="N15" s="7">
-        <v>176692</v>
+        <v>716275</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>372</v>
-      </c>
-      <c r="D16" s="7">
-        <v>272603</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H16" s="7">
-        <v>346</v>
-      </c>
-      <c r="I16" s="7">
-        <v>236078</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="M16" s="7">
-        <v>718</v>
-      </c>
-      <c r="N16" s="7">
-        <v>508681</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>139</v>
-      </c>
-      <c r="D17" s="7">
-        <v>98474</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="A16" t="s">
         <v>87</v>
       </c>
-      <c r="H17" s="7">
-        <v>122</v>
-      </c>
-      <c r="I17" s="7">
-        <v>79936</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="M17" s="7">
-        <v>261</v>
-      </c>
-      <c r="N17" s="7">
-        <v>178409</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>511</v>
-      </c>
-      <c r="D18" s="7">
-        <v>371077</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" s="7">
-        <v>468</v>
-      </c>
-      <c r="I18" s="7">
-        <v>316014</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M18" s="7">
-        <v>979</v>
-      </c>
-      <c r="N18" s="7">
-        <v>687090</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>94</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
